--- a/DATA_goal/Junction_Flooding_460.xlsx
+++ b/DATA_goal/Junction_Flooding_460.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44791.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44791.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.85</v>
+        <v>28.55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.27</v>
+        <v>32.7</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.24</v>
+        <v>152.37</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.86</v>
+        <v>28.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.85</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.84</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.01</v>
+        <v>30.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44791.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44791.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.37</v>
+        <v>23.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.99</v>
+        <v>29.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.4</v>
+        <v>124.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.37</v>
+        <v>23.69</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.71</v>
+        <v>27.1</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_460.xlsx
+++ b/DATA_goal/Junction_Flooding_460.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44791.54861111111</v>
+        <v>45141.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44791.55555555555</v>
+        <v>45141.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.29</v>
+        <v>15.854</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10</v>
+        <v>11.191</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.49</v>
+        <v>1.792</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.55</v>
+        <v>34.293</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.78</v>
+        <v>27.658</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.98</v>
+        <v>12.477</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.7</v>
+        <v>48.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.78</v>
+        <v>19.197</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.91</v>
+        <v>8.286</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.9</v>
+        <v>12.186</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.74</v>
+        <v>13.714</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.06</v>
+        <v>14.332</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.34</v>
+        <v>3.986</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.68</v>
+        <v>12.407</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.49</v>
+        <v>17.476</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>10.708</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.538</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.058</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.37</v>
+        <v>181.527</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.62</v>
+        <v>34.726</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.85</v>
+        <v>11.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.08</v>
+        <v>23.006</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.99</v>
+        <v>11.934</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.38</v>
+        <v>2.255</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.15</v>
+        <v>23.435</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.57</v>
+        <v>10.115</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.41</v>
+        <v>9.153</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.84</v>
+        <v>10.735</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.28</v>
+        <v>14.26</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.05</v>
+        <v>43.798</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.78</v>
+        <v>6.315</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.87</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44791.5625</v>
+        <v>45141.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.84</v>
+        <v>14.893</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.64</v>
+        <v>10.723</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>1.271</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.61</v>
+        <v>32.312</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.48</v>
+        <v>26.205</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.34</v>
+        <v>11.721</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>46.04</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.45</v>
+        <v>18.033</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.13</v>
+        <v>7.883</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.77</v>
+        <v>11.587</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.83</v>
+        <v>12.959</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.65</v>
+        <v>13.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.26</v>
+        <v>3.744</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.88</v>
+        <v>11.655</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>16.484</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.3</v>
+        <v>9.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.031</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.779</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4</v>
+        <v>170.08</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.26</v>
+        <v>32.615</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.82</v>
+        <v>10.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.24</v>
+        <v>21.724</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.24</v>
+        <v>11.337</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.952</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.18</v>
+        <v>22.205</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.49</v>
+        <v>8.535</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>10.016</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.85</v>
+        <v>13.527</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>41.786</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.972</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44791.56944444445</v>
+        <v>45141.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.95</v>
+        <v>13.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.23</v>
+        <v>10.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.38</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.68</v>
+        <v>30.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.69</v>
+        <v>24.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>10.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.87</v>
+        <v>43.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.58</v>
+        <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.31</v>
+        <v>7.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>10.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>12.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.03</v>
+        <v>12.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.76</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.76</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.04</v>
+        <v>15.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.05</v>
+        <v>158.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.69</v>
+        <v>30.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.09</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.38</v>
+        <v>20.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>10.66</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.92</v>
+        <v>20.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.05</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.14</v>
+        <v>7.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.31</v>
+        <v>9.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.13</v>
+        <v>12.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.1</v>
+        <v>39.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.69</v>
+        <v>5.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44791.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_460.xlsx
+++ b/DATA_goal/Junction_Flooding_460.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,11 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -458,19 +458,19 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45141.50694444445</v>
+        <v>44791.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.256</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.153</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.015</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.832</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.967</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.367</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.024</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.106</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.170999999999999</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.751</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.281</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.885</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.586</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.287</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.896</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.285</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.423</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.238</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>210.098</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>39.697</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.187</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.04</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.224</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.103</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.935</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.648</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.595</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.441</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.796</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.454</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.912</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.199</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.486</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45141.51388888889</v>
+        <v>44791.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.854</v>
+        <v>13.289</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.191</v>
+        <v>9.997</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.792</v>
+        <v>0.488</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.293</v>
+        <v>28.545</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.658</v>
+        <v>23.784</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.477</v>
+        <v>9.977</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.12</v>
+        <v>32.701</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.197</v>
+        <v>16.778</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.286</v>
+        <v>7.909</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.186</v>
+        <v>10.897</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.714</v>
+        <v>11.736</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.332</v>
+        <v>12.061</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.986</v>
+        <v>3.336</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.407</v>
+        <v>10.678</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.476</v>
+        <v>14.487</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.708</v>
+        <v>8.297000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.538</v>
+        <v>1.258</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.058</v>
+        <v>0.518</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.527</v>
+        <v>152.371</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>34.726</v>
+        <v>28.621</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.452</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.006</v>
+        <v>20.078</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.934</v>
+        <v>10.992</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.255</v>
+        <v>1.385</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.435</v>
+        <v>17.145</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.115</v>
+        <v>8.565</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.153</v>
+        <v>7.411</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.735</v>
+        <v>8.845000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.26</v>
+        <v>12.276</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.798</v>
+        <v>30.053</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.315</v>
+        <v>5.776</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.318</v>
+        <v>11.872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45141.52083333334</v>
+        <v>44791.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.893</v>
+        <v>0.836</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.723</v>
+        <v>0.636</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.271</v>
+        <v>0.052</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.312</v>
+        <v>1.612</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.205</v>
+        <v>1.476</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.721</v>
+        <v>0.34</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.04</v>
+        <v>8.624000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.033</v>
+        <v>1.446</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.883</v>
+        <v>1.131</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.587</v>
+        <v>0.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.959</v>
+        <v>0.835</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.59</v>
+        <v>0.653</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.744</v>
+        <v>0.264</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.655</v>
+        <v>0.881</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.484</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.99</v>
+        <v>0.298</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.031</v>
+        <v>0.795</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.779</v>
+        <v>0.053</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>170.08</v>
+        <v>3.998</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.615</v>
+        <v>2.265</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.758</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.724</v>
+        <v>2.24</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.337</v>
+        <v>1.24</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.952</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.205</v>
+        <v>4.184</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>0.607</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.535</v>
+        <v>0.493</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.016</v>
+        <v>0.649</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.527</v>
+        <v>0.852</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.786</v>
+        <v>9.042</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.972</v>
+        <v>0.574</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.45</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45141.52777777778</v>
+        <v>44791.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.93</v>
+        <v>10.946</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.12</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.382</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.26</v>
+        <v>23.682</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.61</v>
+        <v>19.693</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.96</v>
+        <v>8.372999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.23</v>
+        <v>29.873</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.87</v>
+        <v>13.578</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.42</v>
+        <v>6.306</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.91</v>
+        <v>8.974</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.14</v>
+        <v>9.643000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.76</v>
+        <v>10.032</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.5</v>
+        <v>2.762</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.9</v>
+        <v>8.757</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.45</v>
+        <v>12.036</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.695</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.317</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.63</v>
+        <v>124.048</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.51</v>
+        <v>23.688</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.06</v>
+        <v>8.087</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.38</v>
+        <v>16.383</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.66</v>
+        <v>8.791</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.75</v>
+        <v>1.135</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.84</v>
+        <v>14.925</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>7.047</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.95</v>
+        <v>6.144</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.34</v>
+        <v>7.306</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.7</v>
+        <v>10.125</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>27.104</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.694</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>9.827999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44791.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>39.23</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>12.58</v>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_460.xlsx
+++ b/DATA_goal/Junction_Flooding_460.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,11 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -458,19 +458,19 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44791.54861111111</v>
+        <v>45141.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44791.55555555555</v>
+        <v>45141.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.289</v>
+        <v>15.854</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.997</v>
+        <v>11.191</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.488</v>
+        <v>1.792</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.545</v>
+        <v>34.293</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.784</v>
+        <v>27.658</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.977</v>
+        <v>12.477</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.701</v>
+        <v>48.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.778</v>
+        <v>19.197</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.909</v>
+        <v>8.286</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.897</v>
+        <v>12.186</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.736</v>
+        <v>13.714</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.061</v>
+        <v>14.332</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.336</v>
+        <v>3.986</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.678</v>
+        <v>12.407</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.487</v>
+        <v>17.476</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.297000000000001</v>
+        <v>10.708</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.258</v>
+        <v>1.538</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.518</v>
+        <v>1.058</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.371</v>
+        <v>181.527</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.621</v>
+        <v>34.726</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.848000000000001</v>
+        <v>11.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.078</v>
+        <v>23.006</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.992</v>
+        <v>11.934</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.385</v>
+        <v>2.255</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.145</v>
+        <v>23.435</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.565</v>
+        <v>10.115</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.411</v>
+        <v>9.153</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.845000000000001</v>
+        <v>10.735</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.276</v>
+        <v>14.26</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.053</v>
+        <v>43.798</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.776</v>
+        <v>6.315</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.872</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44791.5625</v>
+        <v>45141.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.836</v>
+        <v>14.893</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.636</v>
+        <v>10.723</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.052</v>
+        <v>1.271</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.612</v>
+        <v>32.312</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.476</v>
+        <v>26.205</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.34</v>
+        <v>11.721</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.624000000000001</v>
+        <v>46.04</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.446</v>
+        <v>18.033</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.131</v>
+        <v>7.883</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.77</v>
+        <v>11.587</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.835</v>
+        <v>12.959</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.653</v>
+        <v>13.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.264</v>
+        <v>3.744</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.881</v>
+        <v>11.655</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.9429999999999999</v>
+        <v>16.484</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.298</v>
+        <v>9.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.795</v>
+        <v>1.031</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.053</v>
+        <v>0.779</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.998</v>
+        <v>170.08</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.265</v>
+        <v>32.615</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8159999999999999</v>
+        <v>10.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.24</v>
+        <v>21.724</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.24</v>
+        <v>11.337</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.952</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.184</v>
+        <v>22.205</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.607</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.493</v>
+        <v>8.535</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.649</v>
+        <v>10.016</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.852</v>
+        <v>13.527</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.042</v>
+        <v>41.786</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.574</v>
+        <v>5.972</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.6909999999999999</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44791.56944444445</v>
+        <v>45141.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.946</v>
+        <v>13.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.228999999999999</v>
+        <v>10.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.382</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.682</v>
+        <v>30.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.693</v>
+        <v>24.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.372999999999999</v>
+        <v>10.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.873</v>
+        <v>43.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.578</v>
+        <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.306</v>
+        <v>7.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.974</v>
+        <v>10.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.643000000000001</v>
+        <v>12.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.032</v>
+        <v>12.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.762</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.757</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.036</v>
+        <v>15.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.695</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.317</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.048</v>
+        <v>158.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>23.688</v>
+        <v>30.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.087</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.383</v>
+        <v>20.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.791</v>
+        <v>10.66</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.135</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.925</v>
+        <v>20.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.047</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.144</v>
+        <v>7.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.306</v>
+        <v>9.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.125</v>
+        <v>12.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.104</v>
+        <v>39.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.694</v>
+        <v>5.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.827999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44791.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>
